--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A3CD49-DE85-964F-B52C-E81E7F851548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718E534F-7E2F-5F40-952F-3364290515EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
@@ -3051,21 +3051,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>廣場開發 廣18 廣19</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CON-12</t>
   </si>
   <si>
@@ -12126,6 +12111,50 @@
  &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-06.jpeg"  alt="壽山路拓寬6" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
 &lt;/p&gt;
 &lt;p&gt;此次工程包含壽山路丹鳳橋路口增設車道、一公里三百六十公尺處至一公里四百八十公尺處（1K+360至1K+480）路段改善，工程費約四千萬元，用地取得費得參考土地查諮價格與地上物拆遷補償費等結果。&lt;/p&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>廣場開發廣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>廣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>19</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -12850,10 +12879,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -13155,10 +13184,10 @@
         <v>54</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="409.6">
@@ -13175,22 +13204,22 @@
         <v>64</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6">
@@ -13207,10 +13236,10 @@
         <v>67</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>88</v>
@@ -13219,24 +13248,24 @@
         <v>54</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="242">
       <c r="A13" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>110</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -13244,10 +13273,10 @@
         <v>88</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J13" s="13"/>
     </row>
@@ -13268,7 +13297,7 @@
         <v>71</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>16</v>
@@ -13277,15 +13306,15 @@
         <v>23</v>
       </c>
       <c r="I14" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="409.6">
       <c r="A15" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>57</v>
@@ -13330,7 +13359,7 @@
         <v>81</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>75</v>
@@ -13342,7 +13371,7 @@
         <v>82</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="409.6">
@@ -13488,11 +13517,11 @@
         <v>107</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G22" s="22" t="s">
         <v>75</v>
@@ -13554,13 +13583,13 @@
         <v>53</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="409.6">
@@ -13587,7 +13616,7 @@
         <v>54</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J25" s="13"/>
     </row>
@@ -13608,33 +13637,33 @@
         <v>126</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>127</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="409.6">
       <c r="A27" s="10" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>110</v>
       </c>
       <c r="C27" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -13642,25 +13671,25 @@
         <v>88</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" ht="409.6">
       <c r="A28" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C28" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>133</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>134</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -13671,22 +13700,22 @@
         <v>93</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" ht="51">
       <c r="A29" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>110</v>
       </c>
       <c r="C29" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>137</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -13697,49 +13726,49 @@
         <v>93</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" ht="409.6">
       <c r="A30" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>110</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="F30" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>143</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>93</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" ht="134">
       <c r="A31" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>110</v>
       </c>
       <c r="C31" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>147</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -13750,22 +13779,22 @@
         <v>93</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" ht="112">
       <c r="A32" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C32" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -13776,22 +13805,22 @@
         <v>93</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" ht="409.6">
       <c r="A33" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C33" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>155</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -13802,30 +13831,30 @@
         <v>93</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J33" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="167">
       <c r="A34" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>110</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="E34" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="F34" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="G34" s="22" t="s">
         <v>16</v>
@@ -13834,56 +13863,56 @@
         <v>23</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" ht="64">
       <c r="A35" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>110</v>
       </c>
       <c r="C35" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" ht="409.6">
       <c r="A36" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="C36" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="D36" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="F36" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>210</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>16</v>
@@ -13892,24 +13921,24 @@
         <v>23</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="409.6">
       <c r="A37" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B37" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -13917,40 +13946,40 @@
         <v>53</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="64">
       <c r="A38" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="B38" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="C38" s="32" t="s">
+      <c r="D38" s="22" t="s">
         <v>179</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>180</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>75</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J38" s="33"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718E534F-7E2F-5F40-952F-3364290515EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EED2DB9-8DE8-0346-BD92-82298FD7D446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
@@ -381,10 +381,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>變一:文學路,樂善一路延伸計畫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CON-13</t>
   </si>
   <si>
@@ -413,10 +409,6 @@
       <t>"&gt; 2026/10/31日&lt;/a&gt; 完成 , 原預計2022年底開始招標, 已延後。 &lt;del&gt;期望2023年3月招標, 6月動工&lt;/del&gt;。</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>變二:牛角坡路延伸文化一路計畫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CON-14</t>
@@ -5520,57 +5512,6 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變三</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文藝街</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>延伸計畫</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
@@ -12156,6 +12097,46 @@
       <t>19</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>變一文學路樂善一路延伸計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>變二牛角坡路延伸文化一路計畫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變三文藝街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>延伸計畫</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12441,7 +12422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12560,6 +12541,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12879,10 +12863,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -13178,16 +13162,16 @@
         <v>61</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>54</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="409.6">
@@ -13204,100 +13188,100 @@
         <v>64</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6">
-      <c r="A12" s="17" t="s">
-        <v>65</v>
+      <c r="A12" s="40" t="s">
+        <v>216</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>67</v>
-      </c>
       <c r="E12" s="36" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>54</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="242">
       <c r="A13" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="409.6">
-      <c r="A14" s="19" t="s">
-        <v>68</v>
+      <c r="A14" s="40" t="s">
+        <v>217</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>71</v>
-      </c>
       <c r="F14" s="36" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>16</v>
@@ -13306,116 +13290,116 @@
         <v>23</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="409.6">
       <c r="A15" s="35" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="I15" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" ht="409.6">
       <c r="A16" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="F16" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="J16" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="409.6">
       <c r="A17" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="F17" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="G17" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" ht="409.6">
       <c r="A18" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -13423,159 +13407,159 @@
         <v>53</v>
       </c>
       <c r="H18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="32">
       <c r="A19" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" ht="34">
       <c r="A20" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" ht="32">
       <c r="A21" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" ht="384">
       <c r="A22" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J22" s="25"/>
     </row>
     <row r="23" spans="1:10" ht="160">
       <c r="A23" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="D23" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="E23" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="F23" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="G23" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>115</v>
       </c>
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" ht="409.6">
       <c r="A24" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -13583,113 +13567,113 @@
         <v>53</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="409.6">
       <c r="A25" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="E25" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>54</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" ht="409.6">
       <c r="A26" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="E26" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>126</v>
-      </c>
       <c r="F26" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="409.6">
       <c r="A27" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" ht="409.6">
       <c r="A28" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -13697,164 +13681,164 @@
         <v>53</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" ht="51">
       <c r="A29" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" ht="409.6">
       <c r="A30" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B30" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="12" t="s">
+      <c r="F30" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="H30" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="15" t="s">
         <v>141</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>143</v>
       </c>
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" ht="134">
       <c r="A31" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" ht="112">
       <c r="A32" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" ht="409.6">
       <c r="A33" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>152</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J33" s="38" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="167">
       <c r="A34" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B34" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="E34" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="F34" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>159</v>
       </c>
       <c r="G34" s="22" t="s">
         <v>16</v>
@@ -13863,56 +13847,56 @@
         <v>23</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" ht="64">
       <c r="A35" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>167</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" ht="409.6">
       <c r="A36" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="D36" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>172</v>
-      </c>
       <c r="F36" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>16</v>
@@ -13921,24 +13905,24 @@
         <v>23</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="409.6">
       <c r="A37" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>176</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -13946,40 +13930,40 @@
         <v>53</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="64">
       <c r="A38" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>179</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J38" s="33"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EED2DB9-8DE8-0346-BD92-82298FD7D446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B6BBF3-312D-AF47-8562-5786DA7B1E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
@@ -8813,240 +8813,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;p&gt;幼兒園預計</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2023/7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>/18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日完工、國小部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2023/11/19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日完工</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2023/9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月招收</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>班小一</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>暫用幼兒園教室。文青國中小校舍工程預計</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2024/02/09 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>完成。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2022/8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;a href="</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>https://reiso.tycg.gov.tw/detail/8da5e917-bad3-403d-9d7a-aaf93293d83e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">"&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 10.94% &lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;桃園市立文青國民中小學二期校舍新建統包工程 ; 招標金額: 557,021,659 ; 招標日期: 2023-10-26 ; 決標日期: 2023-10-26 ;  運動場將包含在二期工程內
-&lt;/p&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4億</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -12135,6 +11901,342 @@
         <charset val="136"/>
       </rPr>
       <t>延伸計畫</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>&lt;p&gt;幼兒園預計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023/7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>/18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日完工、國小部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023/11/19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日完工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023/9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月招收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>班小一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>暫用幼兒園教室。文青國中小校舍工程預計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2024/02/09 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>完成。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2022/8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;a href="</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>https://reiso.tycg.gov.tw/detail/8da5e917-bad3-403d-9d7a-aaf93293d83e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 10.94% &lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園市立文青國民中小學二期校舍新建統包工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>招標金額</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: 557,021,659 ; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>招標日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: 2023-10-26 ; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>決標日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: 2023-10-26 ;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">運動場將包含在二期工程內&lt;br&gt;
+&lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6821051398022269/?mibextid=uJjRxr"&gt;決標資訊&lt;/a&gt;
+&lt;ul&gt;
+&lt;li&gt;文青國中小二期統包工程於 2024/1/9順利決標&lt;/li&gt;
+&lt;li&gt;預計招收 國小部 36 班；國中部 24 班及 7 班非營利幼兒園&lt;/li&gt;
+&lt;li&gt;履約時間: 112/12/27 － 116/01/04 (預估)&lt;/li&gt;
+&lt;li&gt;第二期工程: 國小部二期+國中部一期+專科教室 ，樓地板面積10091.87平方公尺，預計115年國小部竣工，其他部分116年竣工。&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -12863,10 +12965,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -13208,7 +13310,7 @@
     </row>
     <row r="12" spans="1:10" ht="409.6">
       <c r="A12" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>57</v>
@@ -13235,10 +13337,10 @@
         <v>189</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="242">
+    <row r="13" spans="1:10" ht="226">
       <c r="A13" s="10" t="s">
         <v>159</v>
       </c>
@@ -13249,7 +13351,7 @@
         <v>160</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -13266,7 +13368,7 @@
     </row>
     <row r="14" spans="1:10" ht="409.6">
       <c r="A14" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>57</v>
@@ -13298,7 +13400,7 @@
     </row>
     <row r="15" spans="1:10" ht="409.6">
       <c r="A15" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>57</v>
@@ -13501,11 +13603,11 @@
         <v>105</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G22" s="22" t="s">
         <v>73</v>
@@ -13570,7 +13672,7 @@
         <v>194</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>204</v>
@@ -13638,7 +13740,7 @@
     </row>
     <row r="27" spans="1:10" ht="409.6">
       <c r="A27" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>108</v>
@@ -13818,7 +13920,7 @@
         <v>203</v>
       </c>
       <c r="J33" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="167">
@@ -13851,7 +13953,7 @@
       </c>
       <c r="J34" s="13"/>
     </row>
-    <row r="35" spans="1:10" ht="64">
+    <row r="35" spans="1:10" ht="48">
       <c r="A35" s="10" t="s">
         <v>162</v>
       </c>
@@ -13890,13 +13992,13 @@
         <v>169</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>170</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>16</v>
@@ -13905,7 +14007,7 @@
         <v>23</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J36" s="13" t="s">
         <v>171</v>
@@ -13933,7 +14035,7 @@
         <v>195</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J37" s="18" t="s">
         <v>180</v>
